--- a/2023/cybersecurity_strategic_summit/Risk Register Sample.xlsx
+++ b/2023/cybersecurity_strategic_summit/Risk Register Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c5b007f73cb02b5e/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E174970B-8912-4DC3-982F-DC4DC9C4ADB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{E174970B-8912-4DC3-982F-DC4DC9C4ADB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95463EA3-CF05-4D95-81F8-01C0AAB40582}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{DF993ECC-9534-491A-A797-97DCC25C328D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Risk Identification</t>
   </si>
@@ -78,6 +78,16 @@
   </si>
   <si>
     <t>A number or name</t>
+  </si>
+  <si>
+    <t>Likelihood</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Use the Risk Matrix to asses
+Rate from Low to Very High</t>
   </si>
 </sst>
 </file>
@@ -467,24 +477,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7064E320-C2DF-4534-A8EE-EB7967DE11DE}">
-  <dimension ref="B2:H16"/>
+  <dimension ref="B2:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H6"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="4" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,22 +502,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
@@ -515,22 +531,28 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -538,8 +560,10 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -547,8 +571,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -556,8 +582,10 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -565,8 +593,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -574,8 +604,10 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -583,8 +615,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -592,8 +626,10 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -601,8 +637,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -610,8 +648,10 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -619,8 +659,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -628,8 +670,10 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -637,8 +681,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -646,6 +692,8 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
